--- a/SP_Sklad/TempLate/KABalance.xlsx
+++ b/SP_Sklad/TempLate/KABalance.xlsx
@@ -16,7 +16,7 @@
     <definedName name="sectionPrice">Лист1!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$5:$6</definedName>
   </definedNames>
-  <calcPr calcId="145621" fullCalcOnLoad="1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -46,11 +46,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="175" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="178" formatCode="[$-FC22]d\ mmmm\ yyyy&quot; р.&quot;;@"/>
-    <numFmt numFmtId="179" formatCode="dd/mm/yy\ h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="165" formatCode="[$-FC22]d\ mmmm\ yyyy&quot; р.&quot;;@"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -122,6 +122,13 @@
       <sz val="12"/>
       <color indexed="56"/>
       <name val="Times New Roman Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Times New Roman Cyr"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -311,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -339,21 +346,32 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -377,18 +395,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="175" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -764,7 +770,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -781,77 +787,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="e">
+      <c r="A1" s="16"/>
+      <c r="B1" s="22" t="e">
         <f>"ЗВІТ ПО КОНТРАГЕНТУ "&amp;XLRPARAMS_KAID</f>
         <v>#NAME?</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="e">
+      <c r="B2" s="22" t="e">
         <f>CONCATENATE("за період з "&amp;XLRPARAMS_StartDate," по "&amp;XLRPARAMS_EndDate)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
     </row>
     <row r="4" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="18" t="s">
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="19"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="13" t="e">
         <f>KADocList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="C7" s="26" t="e">
+      <c r="C7" s="17" t="e">
         <f>KADocList_DocName</f>
         <v>#NAME?</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="28"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="19"/>
       <c r="G7" s="14" t="e">
         <f>KADocList_SUMMALL</f>
         <v>#NAME?</v>
@@ -863,12 +870,12 @@
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
       <c r="G8" s="12" t="s">
         <v>4</v>
       </c>
@@ -887,11 +894,11 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
       <c r="G11" s="11"/>
       <c r="H11" s="4"/>
     </row>
@@ -993,12 +1000,11 @@
     <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:F6"/>
     <mergeCell ref="H5:H6"/>

--- a/SP_Sklad/TempLate/KABalance.xlsx
+++ b/SP_Sklad/TempLate/KABalance.xlsx
@@ -50,7 +50,7 @@
     <numFmt numFmtId="165" formatCode="[$-FC22]d\ mmmm\ yyyy&quot; р.&quot;;@"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -58,13 +58,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Times New Roman Cyr"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="18"/>
       <name val="Times New Roman Cyr"/>
       <family val="1"/>
       <charset val="204"/>
@@ -318,42 +311,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -363,37 +346,34 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -766,7 +746,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
@@ -787,99 +767,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16"/>
-      <c r="B1" s="22" t="e">
+      <c r="A1" s="12"/>
+      <c r="B1" s="17" t="e">
         <f>"ЗВІТ ПО КОНТРАГЕНТУ "&amp;XLRPARAMS_KAID</f>
         <v>#NAME?</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="e">
+      <c r="B2" s="17" t="e">
         <f>CONCATENATE("за період з "&amp;XLRPARAMS_StartDate," по "&amp;XLRPARAMS_EndDate)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="23" t="s">
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="18" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="24"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="13" t="e">
+      <c r="B7" s="9" t="e">
         <f>KADocList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="C7" s="17" t="e">
+      <c r="C7" s="13" t="e">
         <f>KADocList_DocName</f>
         <v>#NAME?</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="14" t="e">
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="10" t="e">
         <f>KADocList_SUMMALL</f>
         <v>#NAME?</v>
       </c>
-      <c r="H7" s="14" t="e">
+      <c r="H7" s="10" t="e">
         <f>KADocList_SALDO</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="9"/>
-      <c r="C8" s="20" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="12" t="s">
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="10"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
@@ -890,120 +870,10 @@
       <c r="G9" s="4"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="C8:F8"/>
-    <mergeCell ref="B11:F11"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:F6"/>

--- a/SP_Sklad/TempLate/KABalance.xlsx
+++ b/SP_Sklad/TempLate/KABalance.xlsx
@@ -11,17 +11,17 @@
   </sheets>
   <definedNames>
     <definedName name="INCOMES">Лист1!#REF!</definedName>
-    <definedName name="KADocList">Лист1!$A$7:$H$8</definedName>
+    <definedName name="KADocList">Лист1!$A$8:$I$9</definedName>
     <definedName name="range1">Лист1!#REF!</definedName>
     <definedName name="sectionPrice">Лист1!#REF!</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$5:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$6:$7</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Дата</t>
   </si>
@@ -40,6 +40,18 @@
   <si>
     <t>Кількість документів:</t>
   </si>
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>Період:</t>
+  </si>
+  <si>
+    <t>Контрагент:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЗВІТ ПО КОНТРАГЕНТУ </t>
+  </si>
 </sst>
 </file>
 
@@ -50,7 +62,7 @@
     <numFmt numFmtId="165" formatCode="[$-FC22]d\ mmmm\ yyyy&quot; р.&quot;;@"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -104,14 +116,6 @@
     </font>
     <font>
       <b/>
-      <i/>
-      <sz val="10"/>
-      <color indexed="56"/>
-      <name val="Times New Roman Cyr"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color indexed="56"/>
       <name val="Times New Roman Cyr"/>
@@ -122,6 +126,42 @@
       <color theme="0"/>
       <name val="Times New Roman Cyr"/>
       <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="56"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="56"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color indexed="56"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="56"/>
+      <name val="Times New Roman Cyr"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -145,7 +185,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -209,17 +249,6 @@
       <left style="thin">
         <color indexed="55"/>
       </left>
-      <right style="thin">
-        <color indexed="55"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="55"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="55"/>
@@ -244,24 +273,6 @@
       <top style="thin">
         <color indexed="55"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="55"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="55"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -307,11 +318,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="55"/>
+      </left>
+      <right style="thin">
+        <color indexed="55"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="55"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="55"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -335,21 +390,24 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -364,16 +422,28 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -746,140 +816,173 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="16" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12"/>
-      <c r="B1" s="17" t="e">
-        <f>"ЗВІТ ПО КОНТРАГЕНТУ "&amp;XLRPARAMS_KAID</f>
+    <row r="1" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11"/>
+      <c r="B1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+    </row>
+    <row r="2" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="1:15" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="25" t="e">
+        <f>CONCATENATE("з "&amp;XLRPARAMS_StartDate," по "&amp;XLRPARAMS_EndDate)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
     </row>
-    <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="17" t="e">
-        <f>CONCATENATE("за період з "&amp;XLRPARAMS_StartDate," по "&amp;XLRPARAMS_EndDate)</f>
+    <row r="4" spans="1:15" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="25" t="e">
+        <f>XLRPARAMS_KAID</f>
         <v>#NAME?</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
     </row>
-    <row r="3" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
+    <row r="5" spans="1:15" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>3</v>
-      </c>
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="19"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-    </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="9" t="e">
+    <row r="8" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="9" t="e">
+        <f>KADocList_Num</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C8" s="9" t="e">
         <f>KADocList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="C7" s="13" t="e">
-        <f>KADocList_DocName</f>
+      <c r="D8" s="14" t="e">
+        <f>KADocList_TypeName</f>
         <v>#NAME?</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="10" t="e">
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="10" t="e">
         <f>KADocList_SUMMALL</f>
         <v>#NAME?</v>
       </c>
-      <c r="H7" s="10" t="e">
+      <c r="I8" s="10" t="e">
         <f>KADocList_SALDO</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-      <c r="C8" s="16" t="s">
+    <row r="9" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="8" t="s">
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="7"/>
+      <c r="I9" s="7"/>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
+    <row r="10" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:F6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:G7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/SP_Sklad/TempLate/KABalance.xlsx
+++ b/SP_Sklad/TempLate/KABalance.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="135" yWindow="840" windowWidth="14175" windowHeight="7260"/>
@@ -14,9 +14,9 @@
     <definedName name="KADocList">Лист1!$A$8:$I$9</definedName>
     <definedName name="range1">Лист1!#REF!</definedName>
     <definedName name="sectionPrice">Лист1!#REF!</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$6:$7</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$6:$6</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -56,13 +56,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="165" formatCode="[$-FC22]d\ mmmm\ yyyy&quot; р.&quot;;@"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -185,7 +185,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -233,50 +233,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="55"/>
-      </left>
-      <right style="thin">
-        <color indexed="55"/>
-      </right>
-      <top style="thin">
-        <color indexed="55"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="55"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="55"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="55"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="55"/>
-      </right>
-      <top style="thin">
-        <color indexed="55"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="hair">
         <color indexed="55"/>
       </left>
@@ -322,21 +278,10 @@
       <left style="thin">
         <color indexed="55"/>
       </left>
-      <right style="thin">
-        <color indexed="55"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color indexed="55"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="55"/>
-      </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="55"/>
+      </top>
       <bottom style="hair">
         <color indexed="55"/>
       </bottom>
@@ -345,7 +290,9 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="55"/>
+      </top>
       <bottom style="hair">
         <color indexed="55"/>
       </bottom>
@@ -356,7 +303,39 @@
       <right style="thin">
         <color indexed="55"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="55"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="55"/>
+      </left>
+      <right style="thin">
+        <color indexed="55"/>
+      </right>
+      <top style="thin">
+        <color indexed="55"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="55"/>
+      </left>
+      <right style="thin">
+        <color indexed="55"/>
+      </right>
+      <top style="thin">
+        <color indexed="55"/>
+      </top>
       <bottom style="hair">
         <color indexed="55"/>
       </bottom>
@@ -366,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -391,36 +370,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -434,16 +386,37 @@
     <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -603,7 +576,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -638,7 +610,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -814,16 +785,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
@@ -837,20 +808,20 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="27" customHeight="1">
       <c r="A1" s="11"/>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
     </row>
-    <row r="2" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="12" customHeight="1">
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -860,71 +831,81 @@
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
     </row>
-    <row r="3" spans="1:15" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="24" t="s">
+    <row r="3" spans="1:15" s="14" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="25" t="e">
+      <c r="C3" s="16" t="e">
         <f>CONCATENATE("з "&amp;XLRPARAMS_StartDate," по "&amp;XLRPARAMS_EndDate)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
     </row>
-    <row r="4" spans="1:15" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="24" t="s">
+    <row r="4" spans="1:15" s="14" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="25" t="e">
+      <c r="C4" s="16" t="e">
         <f>XLRPARAMS_KAID</f>
         <v>#NAME?</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
     </row>
-    <row r="5" spans="1:15" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="19" t="s">
+    <row r="5" spans="1:15" ht="9" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33" customHeight="1">
+      <c r="B6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="19" t="s">
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
+    <row r="7" spans="1:15" ht="13.5" hidden="1" customHeight="1">
+      <c r="B7" s="21">
+        <v>1</v>
+      </c>
+      <c r="C7" s="21">
+        <v>2</v>
+      </c>
+      <c r="D7" s="28">
+        <v>3</v>
+      </c>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="21">
+        <v>4</v>
+      </c>
+      <c r="I7" s="21">
+        <v>5</v>
+      </c>
     </row>
-    <row r="8" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="12.75" customHeight="1">
       <c r="B8" s="9" t="e">
         <f>KADocList_Num</f>
         <v>#NAME?</v>
@@ -933,13 +914,13 @@
         <f>KADocList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="D8" s="14" t="e">
+      <c r="D8" s="22" t="e">
         <f>KADocList_TypeName</f>
         <v>#NAME?</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="24"/>
       <c r="H8" s="10" t="e">
         <f>KADocList_SUMMALL</f>
         <v>#NAME?</v>
@@ -949,21 +930,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="12.75" customHeight="1">
       <c r="B9" s="6"/>
       <c r="C9" s="12"/>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
       <c r="H9" s="8" t="s">
         <v>4</v>
       </c>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="12.75" customHeight="1">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="3"/>
@@ -974,15 +955,12 @@
       <c r="I10" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="5">
     <mergeCell ref="D8:G8"/>
     <mergeCell ref="D9:G9"/>
     <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:G7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D7:G7"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
